--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBB\anul 3\Sem 2\Validarea Sistemelor Soft\03_PizzaShop\Docs\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANUL 3 SEMESTRU 2\VVSS\dubai\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916" tabRatio="650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -258,9 +258,6 @@
     <t>if (result.get() == ButtonType.YES)</t>
   </si>
   <si>
-    <t>trebuie apelat result.iPresent inainte sa accesam valoarea</t>
-  </si>
-  <si>
     <t>KitchenGUI,17</t>
   </si>
   <si>
@@ -280,12 +277,24 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):2</t>
+  </si>
+  <si>
+    <t>trebuie apelat result.isPresent inainte sa accesam valoarea</t>
+  </si>
+  <si>
+    <t>Functia initData() si initialize() nu sunt denumite destul de clar</t>
+  </si>
+  <si>
+    <t>OrdersGUIController</t>
+  </si>
+  <si>
+    <t>A07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,6 +511,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -544,7 +554,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,19 +884,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -900,7 +909,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="18">
@@ -911,14 +920,14 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="3">
@@ -929,10 +938,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -944,17 +953,17 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1188,8 +1197,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,19 +1217,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1233,7 +1242,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="3">
@@ -1244,14 +1253,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="3">
@@ -1262,10 +1271,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1277,17 +1286,17 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1337,9 +1346,15 @@
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -1521,19 +1536,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1546,7 +1561,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="3">
@@ -1557,14 +1572,14 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="3">
@@ -1575,10 +1590,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1590,17 +1605,17 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1867,8 +1882,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,19 +1904,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1914,7 +1929,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="18">
@@ -1925,12 +1940,12 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="3">
@@ -1941,8 +1956,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1954,10 +1969,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2018,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>72</v>
@@ -2039,7 +2054,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>77</v>
@@ -2054,10 +2069,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>77</v>
@@ -2072,16 +2087,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2238,11 +2253,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="C32" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>
